--- a/config_debug/act_ty_universal_dh_config.xlsx
+++ b/config_debug/act_ty_universal_dh_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
   <si>
     <t>line|</t>
   </si>
@@ -1033,6 +1033,10 @@
 "4.活动结束后，所有字符将统一清除，请及时进行奖励兑换。",
 "5.实物奖励请关注公众号《彩云新世界》联系在线客服领取",
 "6.实物图片仅供参考，请以实际发出的奖励为准。",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1137,7 +1141,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,6 +1240,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1723,488 +1730,540 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="9" customWidth="1"/>
-    <col min="5" max="5" width="36.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="2" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="29.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="9" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="34">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="21">
+      <c r="J2" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="34">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="21">
+      <c r="J3" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="34">
+        <v>6</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="F4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="H4" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="21">
+      <c r="J4" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="34">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="H6" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="34">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="H7" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="34">
+        <v>7</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D8" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="H8" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="34">
+        <v>8</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="H9" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="34">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="D10" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="H10" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="I10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="15">
+      <c r="J10" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="34">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="D11" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="H11" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="15">
+      <c r="J11" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="34">
+        <v>6</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="E12" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="F12" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="H12" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="I12" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="15">
+      <c r="J12" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="34">
+        <v>1</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="D13" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="E13" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="F13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="H13" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="34">
+        <v>3</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="D14" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="E14" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="F14" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="H14" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34">
+        <v>5</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="D15" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="E15" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="F15" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="H15" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="34">
+        <v>7</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="D16" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="F16" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="G16" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="H16" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="34">
+        <v>8</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="D17" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="E17" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="F17" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="G17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="H17" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2413,7 +2472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/act_ty_universal_dh_config.xlsx
+++ b/config_debug/act_ty_universal_dh_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="9">
-        <v>1612828800</v>
+        <v>1612800000</v>
       </c>
       <c r="M2" s="9">
         <v>1613404799</v>
@@ -1707,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="11">
-        <v>1612828800</v>
+        <v>1612800000</v>
       </c>
       <c r="M3" s="11">
         <v>1613404799</v>
@@ -1732,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3045,26 +3045,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -3075,7 +3055,37 @@
 </pixelators>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -3086,48 +3096,38 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_debug/act_ty_universal_dh_config.xlsx
+++ b/config_debug/act_ty_universal_dh_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="9">
-        <v>1612800000</v>
+        <v>1612828800</v>
       </c>
       <c r="M2" s="9">
         <v>1613404799</v>
@@ -1707,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="11">
-        <v>1612800000</v>
+        <v>1612828800</v>
       </c>
       <c r="M3" s="11">
         <v>1613404799</v>
@@ -1732,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3045,6 +3045,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -3055,37 +3075,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -3096,38 +3086,48 @@
 </sheetInterline>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_debug/act_ty_universal_dh_config.xlsx
+++ b/config_debug/act_ty_universal_dh_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -322,717 +322,717 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>"金龙鱼油4L",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼大米10斤",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20元话费",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000万金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"中级核弹"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200万金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼油4L",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼大米10斤",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20元话费",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000万金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200万金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>swjl_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay_icon_gold9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon_gjhd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon_zjhd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay_icon_gold7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon_cjhd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>swjl_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>swjl_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay_icon_gold8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon_jc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay_icon_gold7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon_yc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_hf20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3800,3800,3800,3800,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,2000,2000,2000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1250,1250,1250,1250,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3000,3000,3000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,1500,1500,1500,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3800,3800,3800,3800,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,2000,2000,2000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1250,1250,1250,1250,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3000,3000,3000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,1500,1500,1500,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,800,0,800,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,600,0,0,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,800,0,800,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,600,0,0,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6000,6000,6000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>73,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14,15,16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小金锤*5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小银锤*10",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"高级核弹*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"初级核弹*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"1.活动时间：2月9日8:00-2月15日23:59:59。",
-"2.活动期间，玩所有游戏都有几率获得福袋，福袋随机拆出“新年快乐”字符，积累字符可兑换奖励。在捕鱼高倍场或小游戏高档次中掉落更多福袋哦！",
+"2.活动期间，玩所有游戏都有几率获得福袋，福袋随机拆出“新年快乐”字符，积累字符可兑换奖励。在小游戏高档次中掉落更多福袋哦！",
 "3.活动期间，商城每日首充可获赠海量福袋。",
 "4.活动结束后，所有字符将统一清除，请及时进行奖励兑换。",
 "5.实物奖励请关注公众号《彩云新世界》联系在线客服领取",
 "6.实物图片仅供参考，请以实际发出的奖励为准。",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金龙鱼油4L",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金龙鱼大米10斤",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"20元话费",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000万金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"中级核弹"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200万金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金龙鱼油4L",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金龙鱼大米10斤",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"20元话费",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1000万金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200万金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>swjl_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pay_icon_gold9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>icon_gjhd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>icon_zjhd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pay_icon_gold7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>icon_cjhd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>swjl_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>swjl_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pay_icon_gold8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>icon_jc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pay_icon_gold7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>icon_yc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_hf20",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3800,3800,3800,3800,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,2000,2000,2000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1250,1250,1250,1250,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000,3000,3000,3000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500,1500,1500,1500,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3800,3800,3800,3800,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,2000,2000,2000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1250,1250,1250,1250,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000,3000,3000,3000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500,1500,1500,1500,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>800,800,0,800,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>600,600,0,0,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>800,800,0,800,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>600,600,0,0,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000,6000,6000,6000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>73,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10,11,12,13,14,15,16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小金锤*5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小银锤*10",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"高级核弹*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"初级核弹*1",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1659,7 +1659,7 @@
         <v>53</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>19</v>
@@ -1676,7 +1676,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -1709,7 +1709,7 @@
         <v>53</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>19</v>
@@ -1725,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>32</v>
@@ -1790,7 +1790,7 @@
         <v>76</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>54</v>
@@ -1804,10 +1804,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="24" t="s">
@@ -1817,7 +1817,7 @@
         <v>76</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>55</v>
@@ -1831,10 +1831,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>59</v>
@@ -1846,7 +1846,7 @@
         <v>76</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>65</v>
@@ -1860,10 +1860,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>60</v>
@@ -1875,7 +1875,7 @@
         <v>78</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21">
@@ -1887,10 +1887,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>61</v>
@@ -1902,7 +1902,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21">
@@ -1914,10 +1914,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>61</v>
@@ -1929,7 +1929,7 @@
         <v>76</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21">
@@ -1941,10 +1941,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>62</v>
@@ -1956,7 +1956,7 @@
         <v>51</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21">
@@ -1968,10 +1968,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>61</v>
@@ -1983,7 +1983,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21">
@@ -1995,10 +1995,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="31" t="s">
@@ -2008,7 +2008,7 @@
         <v>76</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>56</v>
@@ -2022,10 +2022,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="14" t="s">
@@ -2035,7 +2035,7 @@
         <v>78</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>57</v>
@@ -2049,10 +2049,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>58</v>
@@ -2064,7 +2064,7 @@
         <v>78</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>65</v>
@@ -2078,10 +2078,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>63</v>
@@ -2093,7 +2093,7 @@
         <v>78</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15">
@@ -2105,10 +2105,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>64</v>
@@ -2120,7 +2120,7 @@
         <v>78</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15">
@@ -2132,10 +2132,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>64</v>
@@ -2147,7 +2147,7 @@
         <v>78</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15">
@@ -2159,10 +2159,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>62</v>
@@ -2174,7 +2174,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15">
@@ -2186,10 +2186,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>64</v>
@@ -2201,7 +2201,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15">
@@ -2413,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2475,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2986,6 +2986,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -2996,37 +3016,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -3037,38 +3027,48 @@
 </sheetInterline>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>